--- a/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-term/ConceptMap/ch-vacd-vaccines-targetdiseases-cm</t>
+    <t>http://fhir.ch/ig/ch-vacd/ConceptMap/ch-vacd-vaccines-targetdiseases-cm</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -805,7 +805,7 @@
     <t>68473</t>
   </si>
   <si>
-    <t>Nuvaxovid 0.5 ml, Injektionsdispersion</t>
+    <t>Nuvaxovid 0.5 ml</t>
   </si>
   <si>
     <t>68358</t>
@@ -937,7 +937,7 @@
     <t>69189</t>
   </si>
   <si>
-    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5</t>
   </si>
   <si>
     <t>69211</t>
@@ -949,13 +949,13 @@
     <t>68752</t>
   </si>
   <si>
-    <t>Vaxneuvance, Injektionssuspension</t>
+    <t>Vaxneuvance</t>
   </si>
   <si>
     <t>69465</t>
   </si>
   <si>
-    <t>Spikevax XBB.1.5 0.10 mg/ml, Dispersion zur Injektion</t>
+    <t>Spikevax XBB.1.5 0.10 mg/ml</t>
   </si>
   <si>
     <t>69484</t>
@@ -964,7 +964,91 @@
     <t>69488</t>
   </si>
   <si>
-    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis, Injektionsdispersion</t>
+    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis</t>
+  </si>
+  <si>
+    <t>69310</t>
+  </si>
+  <si>
+    <t>AREXVY</t>
+  </si>
+  <si>
+    <t>55735004</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus infection (disorder)</t>
+  </si>
+  <si>
+    <t>69173</t>
+  </si>
+  <si>
+    <t>Jynneos</t>
+  </si>
+  <si>
+    <t>359814004</t>
+  </si>
+  <si>
+    <t>Monkeypox (disorder)</t>
+  </si>
+  <si>
+    <t>67924001</t>
+  </si>
+  <si>
+    <t>Smallpox (disorder)</t>
+  </si>
+  <si>
+    <t>69222</t>
+  </si>
+  <si>
+    <t>Prevenar 20</t>
+  </si>
+  <si>
+    <t>69815</t>
+  </si>
+  <si>
+    <t>Comirnaty Omicron XBB.1.5, 0.042 mg</t>
+  </si>
+  <si>
+    <t>69403</t>
+  </si>
+  <si>
+    <t>Qdenga 0.5 ml</t>
+  </si>
+  <si>
+    <t>38362002</t>
+  </si>
+  <si>
+    <t>Dengue (disorder)</t>
+  </si>
+  <si>
+    <t>69913</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 0.042 mg, Injektionsdispersion in einer Fertigspritze, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-01</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 30 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-02</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 10 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69691</t>
+  </si>
+  <si>
+    <t>Abrysvo, Pulver und Lösungsmittel zur Herstellung einer Injektionslösung, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69788</t>
+  </si>
+  <si>
+    <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
@@ -1360,12 +1444,6 @@
     <t>Variola</t>
   </si>
   <si>
-    <t>67924001</t>
-  </si>
-  <si>
-    <t>Smallpox (disorder)</t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
@@ -1448,6 +1526,12 @@
   </si>
   <si>
     <t>Hepavax</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Vaccin méningococcique A+C Mérieux</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3474,87 +3558,87 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
@@ -3568,10 +3652,10 @@
         <v>39</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
@@ -3585,10 +3669,10 @@
         <v>39</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
@@ -3602,78 +3686,78 @@
         <v>39</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
@@ -3687,10 +3771,10 @@
         <v>39</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116">
@@ -3704,52 +3788,52 @@
         <v>39</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>39</v>
@@ -3763,87 +3847,87 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>159</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>229</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125">
@@ -3857,27 +3941,27 @@
         <v>39</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127">
@@ -3891,256 +3975,256 @@
         <v>39</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>65</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>243</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>243</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>201</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>65</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>65</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>65</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>39</v>
@@ -4154,44 +4238,44 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>243</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>39</v>
@@ -4205,53 +4289,53 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E147" t="s" s="2">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>243</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149">
@@ -4265,18 +4349,18 @@
         <v>39</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>39</v>
@@ -4290,10 +4374,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>39</v>
@@ -4307,10 +4391,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>39</v>
@@ -4324,121 +4408,121 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>47</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>197</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160">
@@ -4452,10 +4536,10 @@
         <v>39</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161">
@@ -4469,10 +4553,10 @@
         <v>39</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162">
@@ -4486,112 +4570,112 @@
         <v>39</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D166" t="s" s="2">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169">
@@ -4605,69 +4689,69 @@
         <v>39</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>71</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>133</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>139</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>39</v>
@@ -4681,10 +4765,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>39</v>
@@ -4698,10 +4782,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>39</v>
@@ -4715,27 +4799,27 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>243</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>39</v>
@@ -4749,10 +4833,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>39</v>
@@ -4766,69 +4850,205 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="E180" t="s" s="2">
-        <v>243</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>243</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D182" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D184" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E184" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E189" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E190" t="s" s="2">
         <v>243</v>
       </c>
     </row>
@@ -4839,7 +5059,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4864,7 +5084,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>35</v>
@@ -4881,10 +5101,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>39</v>
@@ -4898,10 +5118,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>39</v>
@@ -4915,10 +5135,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>39</v>
@@ -4932,10 +5152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>39</v>
@@ -4949,10 +5169,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>39</v>
@@ -4966,10 +5186,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>39</v>
@@ -4983,10 +5203,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>39</v>
@@ -5000,10 +5220,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
@@ -5017,10 +5237,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -5034,10 +5254,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
@@ -5051,10 +5271,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>39</v>
@@ -5068,10 +5288,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>39</v>
@@ -5085,10 +5305,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
@@ -5102,10 +5322,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
@@ -5119,10 +5339,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
@@ -5136,10 +5356,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
@@ -5153,10 +5373,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
@@ -5170,10 +5390,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>39</v>
@@ -5187,10 +5407,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
@@ -5204,10 +5424,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
@@ -5221,10 +5441,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>39</v>
@@ -5238,10 +5458,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
@@ -5255,10 +5475,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
@@ -5272,10 +5492,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
@@ -5289,10 +5509,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
@@ -5306,10 +5526,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>39</v>
@@ -5323,10 +5543,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
@@ -5340,10 +5560,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>39</v>
@@ -5357,10 +5577,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>39</v>
@@ -5374,10 +5594,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>39</v>
@@ -5391,10 +5611,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5408,10 +5628,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>39</v>
@@ -5425,10 +5645,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -5442,10 +5662,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
@@ -5459,10 +5679,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>39</v>
@@ -5476,10 +5696,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
@@ -5493,10 +5713,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>39</v>
@@ -5510,10 +5730,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>39</v>
@@ -5527,10 +5747,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -5544,10 +5764,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
@@ -5561,10 +5781,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
@@ -5578,10 +5798,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>39</v>
@@ -5595,10 +5815,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>39</v>
@@ -5612,10 +5832,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
@@ -5629,10 +5849,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>39</v>
@@ -5646,10 +5866,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -5663,10 +5883,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>39</v>
@@ -5680,10 +5900,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>39</v>
@@ -5697,10 +5917,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>39</v>
@@ -5714,10 +5934,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -5731,10 +5951,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>39</v>
@@ -5748,10 +5968,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>39</v>
@@ -5765,10 +5985,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -5782,10 +6002,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>39</v>
@@ -5799,10 +6019,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>39</v>
@@ -5816,10 +6036,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>39</v>
@@ -5833,10 +6053,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>39</v>
@@ -5850,10 +6070,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>39</v>
@@ -5867,10 +6087,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>39</v>
@@ -5884,10 +6104,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>39</v>
@@ -5901,10 +6121,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -5918,10 +6138,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>39</v>
@@ -5935,10 +6155,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -5952,10 +6172,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>39</v>
@@ -5969,10 +6189,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>39</v>
@@ -5986,10 +6206,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -6003,10 +6223,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>39</v>
@@ -6020,10 +6240,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>39</v>
@@ -6037,10 +6257,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>39</v>
@@ -6054,10 +6274,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>39</v>
@@ -6071,10 +6291,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -6088,10 +6308,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>39</v>
@@ -6105,10 +6325,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>39</v>
@@ -6122,10 +6342,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -6139,10 +6359,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>39</v>
@@ -6156,10 +6376,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -6173,10 +6393,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>39</v>
@@ -6190,10 +6410,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -6207,10 +6427,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -6224,10 +6444,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>39</v>
@@ -6241,10 +6461,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>39</v>
@@ -6258,10 +6478,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>39</v>
@@ -6275,10 +6495,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>39</v>
@@ -6292,10 +6512,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -6309,10 +6529,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>39</v>
@@ -6326,10 +6546,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>39</v>
@@ -6343,10 +6563,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -6360,10 +6580,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>39</v>
@@ -6377,10 +6597,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -6394,10 +6614,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>39</v>
@@ -6411,10 +6631,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>39</v>
@@ -6428,10 +6648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>39</v>
@@ -6445,10 +6665,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>39</v>
@@ -6462,10 +6682,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>39</v>
@@ -6479,10 +6699,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>39</v>
@@ -6496,10 +6716,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>39</v>
@@ -6513,10 +6733,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -6530,10 +6750,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>39</v>
@@ -6547,10 +6767,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>39</v>
@@ -6564,10 +6784,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -6581,10 +6801,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>39</v>
@@ -6598,10 +6818,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -6615,10 +6835,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>39</v>
@@ -6632,10 +6852,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>39</v>
@@ -6649,10 +6869,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>39</v>
@@ -6666,10 +6886,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>39</v>
@@ -6683,10 +6903,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>39</v>
@@ -6700,10 +6920,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>39</v>
@@ -6717,10 +6937,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>39</v>
@@ -6734,10 +6954,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -6751,27 +6971,27 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>449</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>39</v>
@@ -6785,10 +7005,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -6802,10 +7022,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>39</v>
@@ -6819,10 +7039,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -6836,10 +7056,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>39</v>
@@ -6853,10 +7073,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>39</v>
@@ -6870,10 +7090,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>39</v>
@@ -6887,10 +7107,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>39</v>
@@ -6904,10 +7124,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>39</v>
@@ -6921,10 +7141,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>39</v>
@@ -6938,10 +7158,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>39</v>
@@ -6955,10 +7175,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -6972,10 +7192,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>39</v>
@@ -6989,10 +7209,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>39</v>
@@ -7006,10 +7226,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
@@ -7023,10 +7243,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>39</v>
@@ -7040,27 +7260,27 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>449</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>39</v>
@@ -7074,10 +7294,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>39</v>
@@ -7087,6 +7307,23 @@
       </c>
       <c r="E132" t="s" s="2">
         <v>59</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -88,7 +88,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mappings from vaccine code to target disease according to the correcsponding valuesets</t>
+    <t>Mappings from VaccineCode to TargetDisease according to the correcsponding valuesets</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-targetdiseases-cm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1049,6 +1049,66 @@
   </si>
   <si>
     <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>70205</t>
+  </si>
+  <si>
+    <t>Spikevax LP.8.1 Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>70400</t>
+  </si>
+  <si>
+    <t>Comirnaty LP.8.1 10 μg, Injektionsdispersion Pfizer AG</t>
+  </si>
+  <si>
+    <t>70403</t>
+  </si>
+  <si>
+    <t>Comirnaty LP.8.1 30 Mikrogramm, Injektionsdispersion in einer Fertigspritze Pfizer AG'</t>
+  </si>
+  <si>
+    <t>69863-01</t>
+  </si>
+  <si>
+    <t>Efluelda TIV 0.5 mL, suspension injectable en seringue pré-remplie	Sanofi-Aventis (Suisse) SA</t>
+  </si>
+  <si>
+    <t>442438000</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus (disorder)</t>
+  </si>
+  <si>
+    <t>24662006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza B virus (disorder)</t>
+  </si>
+  <si>
+    <t>69995-01</t>
+  </si>
+  <si>
+    <t>mResvia Respiratorisches-Synzytial-Virus (RSV) Vakzin 0.10 mg/ml, Injektionsdispersion	Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>69781</t>
+  </si>
+  <si>
+    <t>Capvaxive, Injektionslösung in Fertigspritze MSD Merck Sharp &amp; Dohme AG</t>
+  </si>
+  <si>
+    <t>70042</t>
+  </si>
+  <si>
+    <t>Fluarix, Injektionssuspension GlaxoSmithKline AG</t>
+  </si>
+  <si>
+    <t>69992</t>
+  </si>
+  <si>
+    <t>Influvac 0.5 ml, Injektionssuspension in einer Fertigspritze Viatris Pharma GmbH</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
@@ -1816,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5050,6 +5110,159 @@
       </c>
       <c r="E190" t="s" s="2">
         <v>243</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E199" t="s" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5297,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>35</v>
@@ -5101,10 +5314,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>39</v>
@@ -5118,10 +5331,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>39</v>
@@ -5135,10 +5348,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>39</v>
@@ -5152,10 +5365,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>39</v>
@@ -5169,10 +5382,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>39</v>
@@ -5186,10 +5399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>39</v>
@@ -5203,10 +5416,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>39</v>
@@ -5220,10 +5433,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
@@ -5237,10 +5450,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -5254,10 +5467,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
@@ -5271,10 +5484,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>39</v>
@@ -5288,10 +5501,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>39</v>
@@ -5305,10 +5518,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
@@ -5322,10 +5535,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
@@ -5339,10 +5552,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
@@ -5356,10 +5569,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
@@ -5373,10 +5586,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
@@ -5390,10 +5603,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>39</v>
@@ -5407,10 +5620,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
@@ -5424,10 +5637,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
@@ -5441,10 +5654,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>39</v>
@@ -5458,10 +5671,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
@@ -5475,10 +5688,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
@@ -5492,10 +5705,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
@@ -5509,10 +5722,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
@@ -5526,10 +5739,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>39</v>
@@ -5543,10 +5756,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
@@ -5560,10 +5773,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>39</v>
@@ -5577,10 +5790,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>39</v>
@@ -5594,10 +5807,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>39</v>
@@ -5611,10 +5824,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5628,10 +5841,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>39</v>
@@ -5645,10 +5858,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -5662,10 +5875,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
@@ -5679,10 +5892,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>39</v>
@@ -5696,10 +5909,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
@@ -5713,10 +5926,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>39</v>
@@ -5730,10 +5943,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>39</v>
@@ -5747,10 +5960,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -5764,10 +5977,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
@@ -5781,10 +5994,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
@@ -5798,10 +6011,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>39</v>
@@ -5815,10 +6028,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>39</v>
@@ -5832,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
@@ -5849,10 +6062,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>39</v>
@@ -5866,10 +6079,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -5883,10 +6096,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>39</v>
@@ -5900,10 +6113,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>39</v>
@@ -5917,10 +6130,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>39</v>
@@ -5934,10 +6147,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -5951,10 +6164,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>39</v>
@@ -5968,10 +6181,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>39</v>
@@ -5985,10 +6198,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -6002,10 +6215,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>39</v>
@@ -6019,10 +6232,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>39</v>
@@ -6036,10 +6249,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>39</v>
@@ -6053,10 +6266,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>39</v>
@@ -6070,10 +6283,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>39</v>
@@ -6087,10 +6300,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>39</v>
@@ -6104,10 +6317,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>39</v>
@@ -6121,10 +6334,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -6138,10 +6351,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>39</v>
@@ -6155,10 +6368,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -6172,10 +6385,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>39</v>
@@ -6189,10 +6402,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>39</v>
@@ -6206,10 +6419,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -6223,10 +6436,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>39</v>
@@ -6240,10 +6453,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>39</v>
@@ -6257,10 +6470,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>39</v>
@@ -6274,10 +6487,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>39</v>
@@ -6291,10 +6504,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -6308,10 +6521,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>39</v>
@@ -6325,10 +6538,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>39</v>
@@ -6342,10 +6555,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -6359,10 +6572,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>39</v>
@@ -6376,10 +6589,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -6393,10 +6606,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>39</v>
@@ -6410,10 +6623,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -6427,10 +6640,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -6444,10 +6657,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>39</v>
@@ -6461,10 +6674,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>39</v>
@@ -6478,10 +6691,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>39</v>
@@ -6495,10 +6708,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>39</v>
@@ -6512,10 +6725,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -6529,10 +6742,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>39</v>
@@ -6546,10 +6759,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>39</v>
@@ -6563,10 +6776,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -6580,10 +6793,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>39</v>
@@ -6597,10 +6810,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -6614,10 +6827,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>39</v>
@@ -6631,10 +6844,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>39</v>
@@ -6648,10 +6861,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>39</v>
@@ -6665,10 +6878,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>39</v>
@@ -6682,10 +6895,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>39</v>
@@ -6699,10 +6912,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>39</v>
@@ -6716,10 +6929,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>39</v>
@@ -6733,10 +6946,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -6750,10 +6963,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>39</v>
@@ -6767,10 +6980,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>39</v>
@@ -6784,10 +6997,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -6801,10 +7014,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>39</v>
@@ -6818,10 +7031,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -6835,10 +7048,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>39</v>
@@ -6852,10 +7065,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>39</v>
@@ -6869,10 +7082,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>39</v>
@@ -6886,10 +7099,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>39</v>
@@ -6903,10 +7116,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>39</v>
@@ -6920,10 +7133,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>39</v>
@@ -6937,10 +7150,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>39</v>
@@ -6954,10 +7167,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -6971,10 +7184,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>39</v>
@@ -6988,10 +7201,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>39</v>
@@ -7005,10 +7218,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -7022,10 +7235,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>39</v>
@@ -7039,10 +7252,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -7056,10 +7269,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>39</v>
@@ -7073,10 +7286,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>39</v>
@@ -7090,10 +7303,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>39</v>
@@ -7107,10 +7320,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>39</v>
@@ -7124,10 +7337,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>39</v>
@@ -7141,10 +7354,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>39</v>
@@ -7158,10 +7371,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>39</v>
@@ -7175,10 +7388,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -7192,10 +7405,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>39</v>
@@ -7209,10 +7422,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>39</v>
@@ -7226,10 +7439,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
@@ -7243,10 +7456,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>39</v>
@@ -7260,10 +7473,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>39</v>
@@ -7277,10 +7490,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>39</v>
@@ -7294,10 +7507,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>39</v>
@@ -7311,10 +7524,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>39</v>
